--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,13 +684,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.375" customWidth="1"/>
     <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
@@ -774,10 +774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -787,10 +787,9 @@
     <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -813,13 +812,10 @@
         <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -842,13 +838,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -871,13 +864,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -900,13 +890,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -929,13 +916,10 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -958,13 +942,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -987,13 +968,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1016,16 +994,13 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
   </sheetData>
@@ -1109,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" activeCellId="1" sqref="J12 I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -722,7 +722,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -739,7 +739,7 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2019</v>
       </c>
       <c r="E3" t="s">
@@ -747,7 +747,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -756,7 +756,7 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2019</v>
       </c>
       <c r="E4" t="s">
@@ -777,7 +777,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,7 +816,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -831,10 +831,10 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -842,7 +842,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -857,10 +857,10 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -868,7 +868,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -883,10 +883,10 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
       <c r="H4" t="s">
@@ -894,7 +894,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -909,10 +909,10 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" t="s">
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -935,10 +935,10 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>2</v>
       </c>
       <c r="H6" t="s">
@@ -946,7 +946,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -961,10 +961,10 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" t="s">
@@ -987,10 +987,10 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
       <c r="H8" t="s">
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
       <c r="I2" s="3">
         <v>37</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" t="s">
@@ -1195,7 +1195,7 @@
       <c r="I3" s="3">
         <v>37</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
@@ -1230,7 +1230,7 @@
       <c r="I4" s="3">
         <v>37</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" t="s">
@@ -1265,7 +1265,7 @@
       <c r="I5" s="3">
         <v>37</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" t="s">
@@ -1300,7 +1300,7 @@
       <c r="I6" s="3">
         <v>37</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" t="s">
@@ -1335,7 +1335,7 @@
       <c r="I7" s="3">
         <v>37</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" t="s">
@@ -1370,7 +1370,7 @@
       <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
       <c r="K8" t="s">
@@ -1405,7 +1405,7 @@
       <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>2</v>
       </c>
       <c r="K9" t="s">
@@ -1440,7 +1440,7 @@
       <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>2</v>
       </c>
       <c r="K10" t="s">
@@ -1475,7 +1475,7 @@
       <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>2</v>
       </c>
       <c r="K11" t="s">
@@ -1510,7 +1510,7 @@
       <c r="I12" s="3">
         <v>37</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>3</v>
       </c>
       <c r="K12" t="s">

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,65 +261,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>device_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>device_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_combination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d0003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,11 +698,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.375" customWidth="1"/>
     <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
@@ -696,7 +711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -713,8 +728,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -730,8 +745,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -747,8 +762,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -777,11 +792,12 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
@@ -790,7 +806,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -809,15 +825,15 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -842,8 +858,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -868,8 +884,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -894,8 +910,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -920,8 +936,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -946,8 +962,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -972,8 +988,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -1017,55 +1033,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5">
         <v>7</v>
@@ -1085,11 +1102,12 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
@@ -1098,7 +1116,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1169,7 +1187,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -1204,7 +1222,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1239,7 +1257,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1274,7 +1292,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1309,7 +1327,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1344,7 +1362,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -1379,7 +1397,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -1414,7 +1432,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -1449,7 +1467,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -1484,7 +1502,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
